--- a/datasheets_pinouts_documents/Emakefun_shield_pinout.xlsx
+++ b/datasheets_pinouts_documents/Emakefun_shield_pinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Chivarov\Google Drive\SRG-ISER\NITRO project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Stefan Chivarov\Documents\aaaaaaaSynchedDocuments\PlatformIO_nitro_for_mygithub\nitro\datasheets_pinouts_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD799575-E276-4EE1-B72D-742AE94FF026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D63F9B-BA51-4C99-ADE2-D36B19DAA106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>A0</t>
   </si>
@@ -90,24 +90,12 @@
     <t>D13</t>
   </si>
   <si>
-    <t>D28</t>
-  </si>
-  <si>
-    <t>D29</t>
-  </si>
-  <si>
-    <t>D30</t>
-  </si>
-  <si>
     <t>Ultrasonic</t>
   </si>
   <si>
     <t>Avoidance left</t>
   </si>
   <si>
-    <t>Prez diod 1N4007</t>
-  </si>
-  <si>
     <t>RGB</t>
   </si>
   <si>
@@ -171,12 +159,6 @@
     <t>Infrared sensor</t>
   </si>
   <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t xml:space="preserve">No PS2 </t>
   </si>
   <si>
@@ -186,12 +168,6 @@
     <t>No PS2 or Infrared</t>
   </si>
   <si>
-    <t>RX ???</t>
-  </si>
-  <si>
-    <t>TX???</t>
-  </si>
-  <si>
     <t>You can always use the analog pins for digital writing.</t>
   </si>
   <si>
@@ -216,9 +192,6 @@
     <t>I2C</t>
   </si>
   <si>
-    <t>Servomotor on 3 pin rails</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
@@ -228,10 +201,28 @@
     <t>middle</t>
   </si>
   <si>
-    <t>??????????????</t>
-  </si>
-  <si>
-    <t>????????????????</t>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Via diod 1N4007</t>
+  </si>
+  <si>
+    <t>If this condition is met:</t>
+  </si>
+  <si>
+    <t>Available for use:</t>
+  </si>
+  <si>
+    <t>No I2C</t>
+  </si>
+  <si>
+    <t>No  NRF or Servomotor</t>
+  </si>
+  <si>
+    <t>3 pin rail</t>
+  </si>
+  <si>
+    <t>Servomotor coupled on the 3 pin rails</t>
   </si>
 </sst>
 </file>
@@ -555,26 +546,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -582,16 +579,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -616,16 +613,16 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -633,53 +630,59 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -690,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -701,47 +704,35 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -749,16 +740,16 @@
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -766,16 +757,16 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -783,28 +774,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -812,13 +803,13 @@
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -826,13 +817,13 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -840,28 +831,28 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -869,19 +860,19 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -889,13 +880,13 @@
         <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K20">
         <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -903,13 +894,13 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -917,131 +908,124 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
-        <v>23</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
